--- a/medicine/Pharmacie/Trospium/Trospium.xlsx
+++ b/medicine/Pharmacie/Trospium/Trospium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le trospium, est un médicament de type antimuscarinique utilisé dans l'hyperactivité vésicale et vendu, entre autres, sous le nom de marque Sanctura[2].
+Le trospium, est un médicament de type antimuscarinique utilisé dans l'hyperactivité vésicale et vendu, entre autres, sous le nom de marque Sanctura.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'st un médicament utilisé pour traiter les symptômes de l'hyperactivité vésicale[2]. Il est pris par voie oriale[2]. Les effets commencent dans les 7 jours[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'st un médicament utilisé pour traiter les symptômes de l'hyperactivité vésicale. Il est pris par voie oriale. Les effets commencent dans les 7 jours.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent la bouche sèche, les douleurs abdominales et la constipation; d'autres effets secondaires peuvent inclure la rétention urinaire, l'agitation et l'anaphylaxie[2],[4]. La sécurité pendant la grossesse n'est pas claire[5]. C'est un agent antimuscarinique avec des effets minimes sur le système nerveux central[6]. Il agit en provoquant le relâchement du muscle lisse de la vessie[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent la bouche sèche, les douleurs abdominales et la constipation; d'autres effets secondaires peuvent inclure la rétention urinaire, l'agitation et l'anaphylaxie,. La sécurité pendant la grossesse n'est pas claire. C'est un agent antimuscarinique avec des effets minimes sur le système nerveux central. Il agit en provoquant le relâchement du muscle lisse de la vessie.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trospium a été breveté en 1966 et approuvé pour un usage médical en 1974[8]. Il est disponible en tant que médicament générique[4]. Au Royaume-Uni, un mois de médicaments coûte au NHS environ 6 livre sterling en 2021[4]. Aux États-Unis, ce montant coûte environ 30 dollar américain[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trospium a été breveté en 1966 et approuvé pour un usage médical en 1974. Il est disponible en tant que médicament générique. Au Royaume-Uni, un mois de médicaments coûte au NHS environ 6 livre sterling en 2021. Aux États-Unis, ce montant coûte environ 30 dollar américain.
 </t>
         </is>
       </c>
